--- a/Config/Excel/Server/MachineConfig.xlsx
+++ b/Config/Excel/Server/MachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/New/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Temp\Fantasy\examples\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65B24704-2F7B-DB48-8B8F-575F64340C7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9197B39C-0509-4DCF-AFA7-45777060AFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="1240" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28530" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineConfig" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -144,12 +143,16 @@
     <t>uint</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
+  <si>
+    <t>101.132.32.174</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -573,19 +576,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -606,7 +609,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -616,7 +619,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -634,7 +637,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -654,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -672,7 +675,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -682,7 +685,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -690,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>16</v>

--- a/Config/Excel/Server/MachineConfig.xlsx
+++ b/Config/Excel/Server/MachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Temp\Fantasy\examples\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9197B39C-0509-4DCF-AFA7-45777060AFCF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68E2A85-1C36-4D87-A616-6775211BB181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28530" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -145,6 +145,10 @@
   </si>
   <si>
     <t>101.132.32.174</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.23.238.109</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -576,7 +580,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -696,7 +700,7 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>

--- a/Config/Excel/Server/MachineConfig.xlsx
+++ b/Config/Excel/Server/MachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Temp\Fantasy\examples\Config\Excel\Server\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B68E2A85-1C36-4D87-A616-6775211BB181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5E94D-F2D6-C543-9882-02121D762DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28530" yWindow="4065" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineConfig" sheetId="8" r:id="rId1"/>
@@ -24,6 +24,7 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -136,19 +137,14 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>127.0.0.1</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>uint</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>101.132.32.174</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>172.23.238.109</t>
+    <t>127.0.0.1</t>
+  </si>
+  <si>
+    <t>127.0.0.1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -156,7 +152,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -580,19 +576,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
-    <col min="4" max="4" width="17.875" customWidth="1"/>
-    <col min="5" max="5" width="16.125" customWidth="1"/>
-    <col min="6" max="6" width="15.625" customWidth="1"/>
-    <col min="7" max="7" width="17.625" customWidth="1"/>
+    <col min="3" max="3" width="16.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.83203125" customWidth="1"/>
+    <col min="5" max="5" width="16.1640625" customWidth="1"/>
+    <col min="6" max="6" width="15.6640625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -600,7 +596,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -613,7 +609,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -623,7 +619,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -641,7 +637,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="18">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -661,7 +657,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="16">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -679,7 +675,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="16">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -689,7 +685,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="16">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -700,10 +696,10 @@
         <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>

--- a/Config/Excel/Server/MachineConfig.xlsx
+++ b/Config/Excel/Server/MachineConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sining/Code/Git/Fantasy/Examples/Config/Excel/Server/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Fansty\FantasyNew\examples\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F5E94D-F2D6-C543-9882-02121D762DFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A7D32-2D64-4BC2-A484-115E23606C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-900" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6345" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MachineConfig" sheetId="8" r:id="rId1"/>
@@ -24,7 +24,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -32,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -137,14 +136,11 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
+    <t>127.0.0.1</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
     <t>uint</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
-  </si>
-  <si>
-    <t>127.0.0.1</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -152,7 +148,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -576,19 +572,19 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="3" max="3" width="16.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.83203125" customWidth="1"/>
-    <col min="5" max="5" width="16.1640625" customWidth="1"/>
-    <col min="6" max="6" width="15.6640625" customWidth="1"/>
-    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="4" max="4" width="17.875" customWidth="1"/>
+    <col min="5" max="5" width="16.125" customWidth="1"/>
+    <col min="6" max="6" width="15.625" customWidth="1"/>
+    <col min="7" max="7" width="17.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -596,7 +592,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>2</v>
@@ -609,7 +605,7 @@
       </c>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
@@ -619,7 +615,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="3" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B3" s="3" t="s">
         <v>4</v>
       </c>
@@ -637,7 +633,7 @@
       </c>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="1:7" s="1" customFormat="1" ht="18">
+    <row r="4" spans="1:7" s="1" customFormat="1" ht="17.25" x14ac:dyDescent="0.15">
       <c r="B4" s="3" t="s">
         <v>5</v>
       </c>
@@ -657,7 +653,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="5" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B5" s="4" t="s">
         <v>11</v>
       </c>
@@ -675,7 +671,7 @@
       </c>
       <c r="G5" s="4"/>
     </row>
-    <row r="6" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="6" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B6" s="5" t="s">
         <v>10</v>
       </c>
@@ -685,7 +681,7 @@
       <c r="F6" s="4"/>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="1" customFormat="1" ht="16">
+    <row r="7" spans="1:7" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.15">
       <c r="B7" s="6">
         <v>1</v>
       </c>
@@ -693,13 +689,13 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>15</v>

--- a/Config/Excel/Server/MachineConfig.xlsx
+++ b/Config/Excel/Server/MachineConfig.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\Fansty\FantasyNew\examples\Config\Excel\Server\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD1A7D32-2D64-4BC2-A484-115E23606C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CE5D12F-AF48-4028-A456-A69652E43B72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6345" yWindow="4125" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -141,6 +141,14 @@
   </si>
   <si>
     <t>uint</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>101.132.32.174</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>172.23.238.109</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -572,7 +580,7 @@
   <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.15"/>
@@ -689,10 +697,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
         <v>16</v>
